--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001208</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票A</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.08</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>320001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>诺安平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>13.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>009911</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>005392</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.98</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>320001</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安平衡混合</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69.03</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010349</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票C</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>80.08</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320020</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安策略精选股票</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78.29</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>512270</t>
+          <t>320020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安沪深300行业中性低波动ETF</t>
+          <t>诺安策略精选股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.26</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003333</t>
+          <t>010349</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰信智选成长灵活配置混合</t>
+          <t>诺安低碳经济股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>512270</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>华安沪深300行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005392</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -940,25 +1110,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009911</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -973,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1172,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003333</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信智选成长灵活配置混合</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>63.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>005392</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>009911</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>290005</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信优势增长混合</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.78</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1164,15 +1402,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>8.25</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,25 +1430,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512270</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安沪深300行业中性低波动ETF</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>168001</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保中证养老产业指数增强</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>290005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>泰信优势增长混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>168001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>国寿安保中证养老产业指数增强</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005392</t>
+          <t>512270</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+          <t>华安沪深300行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1772,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009911</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,6 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>94.09</t>
@@ -1796,6 +1796,706 @@
       </c>
       <c r="H17" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2501,4 +2502,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3280,4 +3281,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3289,7 +3290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,17 +3301,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3320,14 +3341,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.06</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3336,14 +3379,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.54</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3352,14 +3417,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.78</v>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3368,13 +3455,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3574,7 +3575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,17 +3586,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3605,14 +3626,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3621,14 +3664,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3637,14 +3702,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.54</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3653,14 +3740,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.78</v>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3669,13 +3778,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3935,7 +3936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3946,17 +3947,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3966,14 +3987,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="3">
@@ -3982,14 +4025,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3998,14 +4063,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.06</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4014,14 +4101,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.54</v>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4030,14 +4139,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1.78</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="7">
@@ -4046,13 +4293,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>5.54</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>1.78</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2967,7 +3192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3624,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603156-养元饮品.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.43</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>5.54</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>1.78</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -616,7 +633,1675 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015635</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015964</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012334</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015636</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004413</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012335</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +3115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1714,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2492,7 +4177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3192,7 +4877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3847,704 +5532,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>290002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信先行策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6994</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>320001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安平衡混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>69.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2463</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1592</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1579</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001208</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1161</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1119</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.98</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>320020</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺安策略精选股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>78.29</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010349</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.08</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>512270</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华安沪深300行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>